--- a/test/fixtures/files/upload_single_page/01_combo_update_sources_spreadsheet.xlsx
+++ b/test/fixtures/files/upload_single_page/01_combo_update_sources_spreadsheet.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="31">
   <si>
     <t xml:space="preserve">Study:</t>
   </si>
@@ -104,9 +104,6 @@
     <t xml:space="preserve">synthetic construct</t>
   </si>
   <si>
-    <t xml:space="preserve">anatomical entity</t>
-  </si>
-  <si>
     <t xml:space="preserve">mouse prenatal</t>
   </si>
   <si>
@@ -114,9 +111,6 @@
   </si>
   <si>
     <t xml:space="preserve">freshwater sediment metagenome</t>
-  </si>
-  <si>
-    <t xml:space="preserve">retroperitoneal space</t>
   </si>
   <si>
     <t xml:space="preserve">Theiler stage 5</t>
@@ -358,7 +352,7 @@
       <selection pane="topLeft" activeCell="B8" activeCellId="0" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.5234375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="44.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="47.06"/>
@@ -439,11 +433,11 @@
   </sheetPr>
   <dimension ref="A1:F1006"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D4" activeCellId="0" sqref="D4"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E21" activeCellId="0" sqref="E21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.5234375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="7.36"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="47.06"/>
@@ -578,26 +572,26 @@
         <v>26</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="D8" s="6" t="s">
-        <v>30</v>
-      </c>
       <c r="E8" s="6" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
